--- a/src/main/java/resources/proje_bilgileri.xlsx
+++ b/src/main/java/resources/proje_bilgileri.xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Gürkay</t>
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>Esra</t>
+  </si>
+  <si>
+    <t>EsGür</t>
+  </si>
+  <si>
+    <t>12341234</t>
+  </si>
+  <si>
+    <t>İsmail</t>
   </si>
 </sst>
 </file>
@@ -287,7 +299,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -301,6 +313,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -311,7 +347,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,6 +358,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
